--- a/doc/finish project/finish project.xlsx
+++ b/doc/finish project/finish project.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6C031B18-50A5-4F56-AF74-A2942C19CBC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,15 +36,9 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gia Huy</t>
-  </si>
-  <si>
     <t>Design main</t>
   </si>
   <si>
-    <t>Gia Huy</t>
-  </si>
-  <si>
     <t>Coding</t>
   </si>
   <si>
@@ -77,12 +70,18 @@
   </si>
   <si>
     <t>Nonfuncitional Requirement</t>
+  </si>
+  <si>
+    <t>Dao Vinh Phat</t>
+  </si>
+  <si>
+    <t>Hoang Viet Anh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,6 +199,12 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -209,12 +214,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,225 +486,231 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6" t="s">
-        <v>7</v>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6" t="s">
-        <v>5</v>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="9"/>
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
